--- a/src/assets/payload.xlsx
+++ b/src/assets/payload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoccdc-my.sharepoint.com/personal/remy_vanherweghem_parl_gc_ca/Documents/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="615" documentId="8_{CEE5B3B3-20C1-4D76-8839-40FA6650988B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72C80896-1728-4AAB-8244-F765F365E062}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{1586D9BE-0BEE-4142-9B86-AB9744788D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6147CED-5E31-4E82-9EB1-6A03901902FF}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3285" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{983CEFC8-2B83-4647-BCB1-636BCC2A5490}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{983CEFC8-2B83-4647-BCB1-636BCC2A5490}"/>
   </bookViews>
   <sheets>
     <sheet name="How to interface with Web tool" sheetId="8" r:id="rId1"/>
@@ -39,30 +39,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="335">
   <si>
     <t>INPUTS</t>
   </si>
@@ -427,15 +405,6 @@
     <t>Total Bonds</t>
   </si>
   <si>
-    <t>2031-32</t>
-  </si>
-  <si>
-    <t>2032-33</t>
-  </si>
-  <si>
-    <t>2033-34</t>
-  </si>
-  <si>
     <t>Share (2023-24)</t>
   </si>
   <si>
@@ -571,6 +540,9 @@
     <t>warning_fr</t>
   </si>
   <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
     <t>2025-2026</t>
   </si>
   <si>
@@ -1073,9 +1045,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>2029-2030</t>
   </si>
 </sst>
 </file>
@@ -1527,9 +1496,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1567,7 +1536,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1673,7 +1642,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1815,7 +1784,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1839,165 +1808,165 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="74" t="s">
-        <v>206</v>
-      </c>
       <c r="C1" s="74" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="76" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" s="76" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" s="76" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B5" s="76" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B7" s="76"/>
       <c r="C7" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B8" s="76"/>
       <c r="C8" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B9" s="76"/>
       <c r="C9" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B10" s="76"/>
       <c r="C10" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B11" s="76"/>
       <c r="C11" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B12" s="76"/>
       <c r="C12" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B13" s="76"/>
       <c r="C13" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B14" s="76"/>
       <c r="C14" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2014,9 +1983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DA5658-E2EA-4E0B-B547-2D4F388F10E4}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2035,69 +2002,69 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" t="s">
         <v>171</v>
       </c>
-      <c r="B1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="K1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L1" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="N1" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="O1" s="75" t="s">
-        <v>179</v>
-      </c>
       <c r="P1" s="75" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q1" s="75" t="s">
-        <v>337</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C2" s="73" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -2107,7 +2074,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M2" s="75">
         <v>0</v>
@@ -2127,16 +2094,16 @@
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="73" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -2146,7 +2113,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M3" s="75">
         <v>0</v>
@@ -2169,13 +2136,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -2185,7 +2152,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M4" s="75">
         <f>'For user (EN)'!C6</f>
@@ -2213,13 +2180,13 @@
         <v>59</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="73" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -2229,7 +2196,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M5" s="75">
         <f>'For user (EN)'!C10</f>
@@ -2254,30 +2221,30 @@
     </row>
     <row r="6" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M6" s="75">
         <f>'For user (EN)'!C12</f>
@@ -2305,13 +2272,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="73" t="s">
-        <v>183</v>
-      </c>
       <c r="D7" s="73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -2321,7 +2288,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M7" s="75">
         <f>'For user (EN)'!C11</f>
@@ -2349,13 +2316,13 @@
         <v>58</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" s="73" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -2365,7 +2332,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M8" s="75">
         <f>'For user (EN)'!C13</f>
@@ -2393,19 +2360,19 @@
         <v>51</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" s="73" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>193</v>
-      </c>
       <c r="F9" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -2438,22 +2405,22 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -2489,19 +2456,19 @@
         <v>52</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -2537,19 +2504,19 @@
         <v>57</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -2561,43 +2528,43 @@
       <c r="L12" s="15"/>
       <c r="M12" s="75">
         <f>Model!D15</f>
-        <v>2.9216205947873157</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="N12" s="75">
         <f>Model!E15</f>
-        <v>2.9216205947873157</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="O12" s="75">
         <f>Model!F15</f>
-        <v>2.9216205947873157</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="P12" s="75">
         <f>Model!G15</f>
-        <v>2.9216205947873157</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="Q12" s="75">
         <f>Model!H15</f>
-        <v>2.9216205947873157</v>
+        <v>2.9141503759398493</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D13" s="79" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -2628,22 +2595,22 @@
     </row>
     <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D14" s="79" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -2674,22 +2641,22 @@
     </row>
     <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -2720,22 +2687,22 @@
     </row>
     <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D16" s="73" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -2766,22 +2733,22 @@
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D17" s="73" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -2812,22 +2779,22 @@
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D18" s="73" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -2858,22 +2825,22 @@
     </row>
     <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="79" t="s">
         <v>272</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>274</v>
-      </c>
       <c r="D19" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -2904,7 +2871,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q26" s="75" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2921,7 +2888,7 @@
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3031,23 +2998,23 @@
       </c>
       <c r="D5" s="68">
         <f>'For user (EN)'!C5</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="68">
         <f>'For user (EN)'!D5</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="68">
         <f>'For user (EN)'!E5</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="68">
         <f>'For user (EN)'!F5</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="68">
         <f>'For user (EN)'!G5</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -3093,7 +3060,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="28"/>
@@ -3163,7 +3130,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>31</v>
@@ -3192,7 +3159,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>31</v>
@@ -3221,7 +3188,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>31</v>
@@ -3258,23 +3225,23 @@
       <c r="C15" s="30"/>
       <c r="D15" s="8">
         <f>'Fiscal Model Import'!F25</f>
-        <v>2.9216205947873157</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="E15" s="8">
         <f>'Fiscal Model Import'!G25</f>
-        <v>2.9216205947873157</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="F15" s="8">
         <f>'Fiscal Model Import'!H25</f>
-        <v>2.9216205947873157</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="G15" s="8">
         <f>'Fiscal Model Import'!I25</f>
-        <v>2.9216205947873157</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="H15" s="8">
         <f>'Fiscal Model Import'!J25</f>
-        <v>2.9216205947873157</v>
+        <v>2.9141503759398493</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -3326,7 +3293,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>28</v>
@@ -3356,7 +3323,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>29</v>
@@ -3385,7 +3352,7 @@
     </row>
     <row r="20" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>30</v>
@@ -3414,10 +3381,10 @@
     </row>
     <row r="21" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="9">
@@ -3453,7 +3420,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="30"/>
@@ -3465,10 +3432,10 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="9">
@@ -3494,10 +3461,10 @@
     </row>
     <row r="25" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="9">
@@ -3523,10 +3490,10 @@
     </row>
     <row r="26" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="9">
@@ -3552,10 +3519,10 @@
     </row>
     <row r="27" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="9">
@@ -3581,10 +3548,10 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="9">
@@ -3613,7 +3580,7 @@
         <v>56</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="9">
@@ -3640,10 +3607,10 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="67">
@@ -3674,10 +3641,10 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="67">
@@ -3703,10 +3670,10 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="67">
@@ -3732,10 +3699,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="67">
@@ -3761,10 +3728,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="67">
@@ -3919,10 +3886,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6850CC84-2C73-4E9A-9D27-7F30E585FDDE}">
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="X26" sqref="X26"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4064,7 +4031,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -4124,7 +4091,7 @@
         <v>94</v>
       </c>
       <c r="W3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -4255,83 +4222,83 @@
       </c>
       <c r="D6" s="68">
         <f>'For user (EN)'!C5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E6" s="68">
         <f>'For user (EN)'!C5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F6" s="68">
         <f>'For user (EN)'!C5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G6" s="68">
         <f>'For user (EN)'!C5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H6" s="68">
         <f>'For user (EN)'!D5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I6" s="68">
         <f>'For user (EN)'!$D5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J6" s="68">
         <f>'For user (EN)'!$D5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K6" s="68">
         <f>'For user (EN)'!$D5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="L6" s="4">
         <f>'For user (EN)'!$E5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="M6" s="4">
         <f>'For user (EN)'!$E5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="N6" s="4">
         <f>'For user (EN)'!$E5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="O6" s="4">
         <f>'For user (EN)'!$E5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="P6" s="4">
         <f>'For user (EN)'!$F5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="4">
         <f>'For user (EN)'!$F5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="R6" s="4">
         <f>'For user (EN)'!$F5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="S6" s="4">
         <f>'For user (EN)'!$F5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="T6" s="4">
         <f>'For user (EN)'!$G5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="U6" s="4">
         <f>'For user (EN)'!$G5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="V6" s="4">
         <f>'For user (EN)'!$G5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="W6" s="4">
         <f>'For user (EN)'!$G5/4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -4452,7 +4419,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B10" s="41"/>
       <c r="C10" s="28"/>
@@ -4657,7 +4624,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>31</v>
@@ -4746,7 +4713,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>31</v>
@@ -4835,7 +4802,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>31</v>
@@ -4932,83 +4899,83 @@
       <c r="C16" s="30"/>
       <c r="D16" s="8">
         <f>'Fiscal Model Import'!O46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="E16" s="8">
         <f>'Fiscal Model Import'!P46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="F16" s="8">
         <f>'Fiscal Model Import'!Q46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="G16" s="8">
         <f>'Fiscal Model Import'!R46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="H16" s="8">
         <f>'Fiscal Model Import'!S46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="I16" s="8">
         <f>'Fiscal Model Import'!T46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="J16" s="8">
         <f>'Fiscal Model Import'!U46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="K16" s="8">
         <f>'Fiscal Model Import'!V46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="L16" s="8">
         <f>'Fiscal Model Import'!W46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="M16" s="8">
         <f>'Fiscal Model Import'!X46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="N16" s="8">
         <f>'Fiscal Model Import'!Y46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="O16" s="8">
         <f>'Fiscal Model Import'!Z46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="P16" s="8">
         <f>'Fiscal Model Import'!AA46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="Q16" s="8">
         <f>'Fiscal Model Import'!AB46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="R16" s="8">
         <f>'Fiscal Model Import'!AC46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="S16" s="8">
         <f>'Fiscal Model Import'!AD46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="T16" s="8">
         <f>'Fiscal Model Import'!AE46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="U16" s="8">
         <f>'Fiscal Model Import'!AF46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="V16" s="8">
         <f>'Fiscal Model Import'!AG46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="W16" s="8">
         <f>'Fiscal Model Import'!AH46</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -5065,7 +5032,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>28</v>
@@ -5154,7 +5121,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>29</v>
@@ -5243,7 +5210,7 @@
     </row>
     <row r="21" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>30</v>
@@ -5332,10 +5299,10 @@
     </row>
     <row r="22" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="9">
@@ -5446,7 +5413,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="30"/>
@@ -5473,10 +5440,10 @@
     </row>
     <row r="25" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="9">
@@ -5562,7 +5529,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="30"/>
@@ -5649,7 +5616,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="30"/>
@@ -5736,10 +5703,10 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="9">
@@ -5825,10 +5792,10 @@
     </row>
     <row r="29" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="69">
@@ -5914,10 +5881,10 @@
     </row>
     <row r="30" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="69">
@@ -6003,10 +5970,10 @@
     </row>
     <row r="31" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="69">
@@ -6092,10 +6059,10 @@
     </row>
     <row r="32" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="69">
@@ -6181,10 +6148,10 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B33" s="36" t="s">
         <v>305</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>307</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="69">
@@ -6270,10 +6237,10 @@
     </row>
     <row r="34" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="69">
@@ -6359,10 +6326,10 @@
     </row>
     <row r="35" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="69">
@@ -6448,10 +6415,10 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="9">
@@ -6537,10 +6504,10 @@
     </row>
     <row r="37" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="69">
@@ -6626,10 +6593,10 @@
     </row>
     <row r="38" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="69">
@@ -6715,10 +6682,10 @@
     </row>
     <row r="39" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="69">
@@ -6804,10 +6771,10 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="69">
@@ -6896,7 +6863,7 @@
         <v>56</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="69">
@@ -6982,10 +6949,10 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="67">
@@ -7071,10 +7038,10 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="67">
@@ -7160,10 +7127,10 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="67">
@@ -7249,10 +7216,10 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="67">
@@ -7338,10 +7305,10 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="67">
@@ -7427,10 +7394,10 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="67">
@@ -7516,10 +7483,10 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="67">
@@ -7605,10 +7572,10 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="67">
@@ -7719,7 +7686,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B51" s="42"/>
       <c r="C51" s="30"/>
@@ -7746,10 +7713,10 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="30"/>
@@ -7832,10 +7799,10 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
@@ -7915,10 +7882,10 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
@@ -7992,10 +7959,10 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="46"/>
@@ -8078,10 +8045,10 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="46"/>
@@ -8143,10 +8110,10 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="46"/>
@@ -8196,10 +8163,10 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="46"/>
@@ -8225,10 +8192,10 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="46"/>
@@ -8290,7 +8257,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B60" s="45"/>
       <c r="C60" s="30"/>
@@ -8317,10 +8284,10 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="32">
@@ -8406,10 +8373,10 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="C62" s="30"/>
       <c r="D62" s="32">
@@ -8495,10 +8462,10 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="C63" s="30"/>
       <c r="D63" s="32">
@@ -8584,10 +8551,10 @@
     </row>
     <row r="64" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B64" s="36" t="s">
         <v>249</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>251</v>
       </c>
       <c r="C64" s="30"/>
       <c r="D64" s="32">
@@ -8673,10 +8640,10 @@
     </row>
     <row r="65" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="36" t="s">
         <v>250</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>252</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="32">
@@ -8762,10 +8729,10 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="70">
@@ -8851,10 +8818,10 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="70">
@@ -8940,10 +8907,10 @@
     </row>
     <row r="68" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="32">
@@ -9032,7 +8999,7 @@
         <v>53</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C69" s="30"/>
       <c r="D69" s="32">
@@ -9146,88 +9113,88 @@
         <v>54</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C71" s="30"/>
       <c r="D71" s="46">
         <f>IF(D22&gt;0,SUMPRODUCT(D42:D44,D61:D63)+SUMPRODUCT(D46:D47,D64:D65)+SUMPRODUCT(D48:D49,D68:D69),D16)</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="E71" s="46">
         <f t="shared" ref="E71:W71" si="35">IF(E22&gt;0,SUMPRODUCT(E42:E44,E61:E63)+SUMPRODUCT(E46:E47,E64:E65)+SUMPRODUCT(E48:E49,E68:E69),E16)</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="F71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="G71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="H71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="I71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="J71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="K71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="L71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="M71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="N71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="O71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="P71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="Q71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="R71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="S71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="T71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="U71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="V71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="W71" s="46">
         <f t="shared" si="35"/>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
@@ -9531,7 +9498,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D79" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
@@ -9586,7 +9553,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9658,26 +9625,11 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
-        <f>machine_readable!M2</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <f>machine_readable!N2</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <f>machine_readable!O2</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <f>machine_readable!P2</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <f>machine_readable!Q2</f>
-        <v>0</v>
-      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -9687,24 +9639,19 @@
         <v>5</v>
       </c>
       <c r="C5" s="4">
-        <f>machine_readable!M3</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="4">
-        <f>machine_readable!N3</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="4">
-        <f>machine_readable!O3</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="4">
-        <f>machine_readable!P3</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="4">
-        <f>machine_readable!Q3</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -9715,23 +9662,18 @@
         <v>5</v>
       </c>
       <c r="C6" s="68">
-        <f t="shared" ref="C6:G6" si="2">C4-C5</f>
         <v>0</v>
       </c>
       <c r="D6" s="68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9860,7 +9802,7 @@
     </row>
     <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B15" s="15"/>
     </row>
@@ -9885,8 +9827,8 @@
   </sheetPr>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9963,8 +9905,8 @@
         <v>0.57938144329896912</v>
       </c>
       <c r="K2" s="65">
-        <f>AVERAGE(I30,I31,I34,I35,I36)</f>
-        <v>0.55012913451292766</v>
+        <f>I36</f>
+        <v>0.55451127819548873</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -10000,7 +9942,7 @@
       </c>
       <c r="K3" s="65">
         <f>SUM(G44:G46)*K$6</f>
-        <v>0.2920214390003803</v>
+        <v>0.29511278195488716</v>
       </c>
       <c r="M3" s="20"/>
     </row>
@@ -10037,16 +9979,20 @@
       </c>
       <c r="K4" s="65">
         <f>G47*K$6</f>
-        <v>0.15784942648669203</v>
+        <v>0.15037593984962405</v>
       </c>
       <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K5" s="20"/>
+      <c r="L5" s="65">
+        <f>SUM(K2:K4)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G6" s="62" t="s">
         <v>120</v>
@@ -10065,15 +10011,15 @@
       </c>
       <c r="K6" s="65">
         <f>1-K2</f>
-        <v>0.44987086548707234</v>
+        <v>0.44548872180451127</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F7" s="62"/>
       <c r="H7" s="65"/>
@@ -10083,7 +10029,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B8" s="20">
         <v>0.14799999999999999</v>
@@ -10103,7 +10049,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B9" s="20">
         <v>0.496</v>
@@ -10123,7 +10069,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B10" s="20">
         <v>0.17799999999999999</v>
@@ -10143,7 +10089,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B11" s="20">
         <v>0.17799999999999999</v>
@@ -10162,7 +10108,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B12" s="77">
         <f>SUMPRODUCT(B8:B11,C8:C11)</f>
@@ -10228,16 +10174,16 @@
         <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
         <v>63</v>
       </c>
       <c r="I17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -10258,7 +10204,7 @@
       </c>
       <c r="E18">
         <f>E30</f>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G18" s="64">
         <f>B18/SUM(B$18:B$20)</f>
@@ -10274,7 +10220,7 @@
       </c>
       <c r="J18" s="64">
         <f>E18/SUM(E$18:E$20)</f>
-        <v>0.59459459459459463</v>
+        <v>0.59872611464968151</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -10332,7 +10278,7 @@
       </c>
       <c r="E20">
         <f>E32</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G20" s="64">
         <f t="shared" si="7"/>
@@ -10347,30 +10293,30 @@
         <v>0.33812949640287771</v>
       </c>
       <c r="J20" s="64">
-        <f t="shared" si="8"/>
-        <v>0.40540540540540543</v>
+        <f>E20/SUM(E$18:E$20)</f>
+        <v>0.40127388535031849</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I23" s="62"/>
       <c r="J23" s="62"/>
       <c r="K23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I24" s="71">
         <f>159/260</f>
         <v>0.61153846153846159</v>
       </c>
       <c r="K24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L24" s="71">
         <v>0.27050898203592799</v>
@@ -10378,14 +10324,14 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I25" s="71">
         <f>149/238</f>
         <v>0.62605042016806722</v>
       </c>
       <c r="K25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L25" s="71">
         <v>0.23585632804069601</v>
@@ -10407,14 +10353,14 @@
       </c>
       <c r="F26" s="54"/>
       <c r="H26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I26" s="71">
         <f>130/226</f>
         <v>0.5752212389380531</v>
       </c>
       <c r="K26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L26" s="71">
         <v>0.20892994611239399</v>
@@ -10436,14 +10382,14 @@
       </c>
       <c r="F27" s="54"/>
       <c r="H27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I27" s="71">
         <f>129/221</f>
         <v>0.58371040723981904</v>
       </c>
       <c r="K27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L27" s="71">
         <v>0.20620373107808199</v>
@@ -10457,14 +10403,14 @@
       <c r="E28" s="61"/>
       <c r="F28" s="61"/>
       <c r="H28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I28" s="71">
         <f>134/268</f>
         <v>0.5</v>
       </c>
       <c r="K28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L28" s="71">
         <v>0.19665612655044701</v>
@@ -10484,18 +10430,18 @@
         <v>267</v>
       </c>
       <c r="E29" s="57">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="F29" s="57"/>
       <c r="H29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I29" s="71">
         <f>131/274</f>
         <v>0.47810218978102192</v>
       </c>
       <c r="K29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L29" s="71">
         <v>0.15717666970039801</v>
@@ -10515,12 +10461,12 @@
         <v>86</v>
       </c>
       <c r="E30" s="59">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F30" s="59"/>
       <c r="G30">
         <f>E30/E37</f>
-        <v>0.17599999999999999</v>
+        <v>0.17537313432835822</v>
       </c>
       <c r="H30" t="s">
         <v>116</v>
@@ -10580,12 +10526,12 @@
         <v>47</v>
       </c>
       <c r="E32" s="59">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F32" s="59"/>
       <c r="G32">
         <f>E32/E37</f>
-        <v>0.12</v>
+        <v>0.11753731343283583</v>
       </c>
       <c r="H32" t="s">
         <v>23</v>
@@ -10615,7 +10561,7 @@
         <v>47</v>
       </c>
       <c r="E33" s="59">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F33" s="59"/>
       <c r="H33" t="s">
@@ -10647,7 +10593,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="59">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F34" s="59"/>
       <c r="H34" t="s">
@@ -10705,15 +10651,16 @@
         <v>204</v>
       </c>
       <c r="E36" s="57">
-        <v>228</v>
+        <f>SUM(E30:E35)</f>
+        <v>241</v>
       </c>
       <c r="F36" s="57"/>
       <c r="H36" t="s">
         <v>34</v>
       </c>
       <c r="I36" s="71">
-        <f>E29/E37</f>
-        <v>0.54400000000000004</v>
+        <f>E29/SUM(E29:E34)</f>
+        <v>0.55451127819548873</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -10730,12 +10677,13 @@
         <v>471</v>
       </c>
       <c r="E37" s="57">
-        <v>500</v>
+        <f>SUM(E29:E35)</f>
+        <v>536</v>
       </c>
       <c r="F37" s="57"/>
       <c r="I37" s="20">
         <f>AVERAGE(I24:I31,I34:I36)</f>
-        <v>0.5568425809300056</v>
+        <v>0.55779815167504998</v>
       </c>
       <c r="J37" s="20"/>
     </row>
@@ -10752,6 +10700,10 @@
         <f>D33/SUM(D33:D34)</f>
         <v>0.77049180327868849</v>
       </c>
+      <c r="E39">
+        <f>E33/SUM(E33:E34)</f>
+        <v>0.78749999999999998</v>
+      </c>
       <c r="P39">
         <f>213/435</f>
         <v>0.48965517241379308</v>
@@ -10780,7 +10732,7 @@
         <v>112</v>
       </c>
       <c r="G43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H43" t="s">
         <v>113</v>
@@ -10806,8 +10758,8 @@
         <v>103</v>
       </c>
       <c r="G44" s="63">
-        <f>E30/E36</f>
-        <v>0.38596491228070173</v>
+        <f>E30/SUM(E30:E34)</f>
+        <v>0.39662447257383965</v>
       </c>
       <c r="H44" s="63">
         <f>D30/D36</f>
@@ -10862,8 +10814,8 @@
         <v>105</v>
       </c>
       <c r="G46" s="63">
-        <f>E32/E36</f>
-        <v>0.26315789473684209</v>
+        <f>E32/SUM(E30:E34)</f>
+        <v>0.26582278481012656</v>
       </c>
       <c r="H46" s="63">
         <f>D32/D36</f>
@@ -10889,9 +10841,9 @@
       <c r="E47" t="s">
         <v>117</v>
       </c>
-      <c r="G47" s="63" cm="1">
-        <f t="array" ref="G47">SUM(E33:E35/E36)</f>
-        <v>0.35087719298245612</v>
+      <c r="G47" s="63">
+        <f>SUM(E33:E34)/SUM(E30:E34)</f>
+        <v>0.33755274261603374</v>
       </c>
       <c r="H47" s="63">
         <f>SUM(D33:D35)/D36</f>
@@ -10914,13 +10866,13 @@
       </c>
       <c r="P47" s="77">
         <f>AVERAGE(G47:M47)</f>
-        <v>0.30425368374576794</v>
+        <v>0.30235019083627895</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G48" s="77">
         <f>SUM(G44:G47)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H48" s="77">
         <f>SUM(H44:H47)</f>
@@ -11047,10 +10999,10 @@
   </sheetPr>
   <dimension ref="A1:CD120"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="topRight" activeCell="O48" sqref="O48:AK50"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11103,15 +11055,6 @@
       <c r="K1" t="s">
         <v>97</v>
       </c>
-      <c r="L1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -11130,45 +11073,36 @@
         <v>0.57938144329896912</v>
       </c>
       <c r="E2" s="47">
-        <f>Decomposition!K2</f>
-        <v>0.55012913451292766</v>
+        <f>Decomposition!I36</f>
+        <v>0.55451127819548873</v>
       </c>
       <c r="F2" s="47">
         <f>$E2</f>
-        <v>0.55012913451292766</v>
+        <v>0.55451127819548873</v>
       </c>
       <c r="G2" s="47">
-        <f t="shared" ref="G2:N2" si="0">$E2</f>
-        <v>0.55012913451292766</v>
+        <f t="shared" ref="G2:K2" si="0">$E2</f>
+        <v>0.55451127819548873</v>
       </c>
       <c r="H2" s="47">
         <f t="shared" si="0"/>
-        <v>0.55012913451292766</v>
+        <v>0.55451127819548873</v>
       </c>
       <c r="I2" s="47">
         <f t="shared" si="0"/>
-        <v>0.55012913451292766</v>
+        <v>0.55451127819548873</v>
       </c>
       <c r="J2" s="47">
         <f t="shared" si="0"/>
-        <v>0.55012913451292766</v>
+        <v>0.55451127819548873</v>
       </c>
       <c r="K2" s="47">
         <f t="shared" si="0"/>
-        <v>0.55012913451292766</v>
-      </c>
-      <c r="L2" s="47">
-        <f t="shared" si="0"/>
-        <v>0.55012913451292766</v>
-      </c>
-      <c r="M2" s="47">
-        <f t="shared" si="0"/>
-        <v>0.55012913451292766</v>
-      </c>
-      <c r="N2" s="47">
-        <f t="shared" si="0"/>
-        <v>0.55012913451292766</v>
-      </c>
+        <v>0.55451127819548873</v>
+      </c>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -11188,44 +11122,35 @@
       </c>
       <c r="E3" s="48">
         <f>Decomposition!K4</f>
-        <v>0.15784942648669203</v>
+        <v>0.15037593984962405</v>
       </c>
       <c r="F3" s="47">
-        <f t="shared" ref="F3:N4" si="1">$E3</f>
-        <v>0.15784942648669203</v>
+        <f t="shared" ref="F3:K4" si="1">$E3</f>
+        <v>0.15037593984962405</v>
       </c>
       <c r="G3" s="47">
         <f t="shared" si="1"/>
-        <v>0.15784942648669203</v>
+        <v>0.15037593984962405</v>
       </c>
       <c r="H3" s="47">
         <f t="shared" si="1"/>
-        <v>0.15784942648669203</v>
+        <v>0.15037593984962405</v>
       </c>
       <c r="I3" s="47">
         <f t="shared" si="1"/>
-        <v>0.15784942648669203</v>
+        <v>0.15037593984962405</v>
       </c>
       <c r="J3" s="47">
         <f t="shared" si="1"/>
-        <v>0.15784942648669203</v>
+        <v>0.15037593984962405</v>
       </c>
       <c r="K3" s="47">
         <f t="shared" si="1"/>
-        <v>0.15784942648669203</v>
-      </c>
-      <c r="L3" s="47">
-        <f t="shared" si="1"/>
-        <v>0.15784942648669203</v>
-      </c>
-      <c r="M3" s="47">
-        <f t="shared" si="1"/>
-        <v>0.15784942648669203</v>
-      </c>
-      <c r="N3" s="47">
-        <f t="shared" si="1"/>
-        <v>0.15784942648669203</v>
-      </c>
+        <v>0.15037593984962405</v>
+      </c>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -11245,51 +11170,48 @@
       </c>
       <c r="E4" s="47">
         <f>Decomposition!K3</f>
-        <v>0.2920214390003803</v>
+        <v>0.29511278195488716</v>
       </c>
       <c r="F4" s="47">
         <f t="shared" si="1"/>
-        <v>0.2920214390003803</v>
+        <v>0.29511278195488716</v>
       </c>
       <c r="G4" s="47">
         <f t="shared" si="1"/>
-        <v>0.2920214390003803</v>
+        <v>0.29511278195488716</v>
       </c>
       <c r="H4" s="47">
         <f t="shared" si="1"/>
-        <v>0.2920214390003803</v>
+        <v>0.29511278195488716</v>
       </c>
       <c r="I4" s="47">
         <f t="shared" si="1"/>
-        <v>0.2920214390003803</v>
+        <v>0.29511278195488716</v>
       </c>
       <c r="J4" s="47">
         <f t="shared" si="1"/>
-        <v>0.2920214390003803</v>
+        <v>0.29511278195488716</v>
       </c>
       <c r="K4" s="47">
         <f t="shared" si="1"/>
-        <v>0.2920214390003803</v>
-      </c>
-      <c r="L4" s="47">
-        <f t="shared" si="1"/>
-        <v>0.2920214390003803</v>
-      </c>
-      <c r="M4" s="47">
-        <f t="shared" si="1"/>
-        <v>0.2920214390003803</v>
-      </c>
-      <c r="N4" s="47">
-        <f t="shared" si="1"/>
-        <v>0.2920214390003803</v>
-      </c>
+        <v>0.29511278195488716</v>
+      </c>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
+      <c r="D5" s="47">
+        <f>SUM(D2:D4)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="47">
+        <f>SUM(E2:E4)</f>
+        <v>1</v>
+      </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
@@ -11302,7 +11224,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -11333,15 +11255,6 @@
       </c>
       <c r="K6" t="s">
         <v>97</v>
-      </c>
-      <c r="L6" t="s">
-        <v>121</v>
-      </c>
-      <c r="M6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -11362,44 +11275,35 @@
       </c>
       <c r="E7" s="47">
         <f>Decomposition!J18</f>
-        <v>0.59459459459459463</v>
+        <v>0.59872611464968151</v>
       </c>
       <c r="F7" s="47">
         <f>E7</f>
-        <v>0.59459459459459463</v>
+        <v>0.59872611464968151</v>
       </c>
       <c r="G7" s="47">
-        <f t="shared" ref="G7:N7" si="2">F7</f>
-        <v>0.59459459459459463</v>
+        <f t="shared" ref="G7:K7" si="2">F7</f>
+        <v>0.59872611464968151</v>
       </c>
       <c r="H7" s="47">
         <f t="shared" si="2"/>
-        <v>0.59459459459459463</v>
+        <v>0.59872611464968151</v>
       </c>
       <c r="I7" s="47">
         <f t="shared" si="2"/>
-        <v>0.59459459459459463</v>
+        <v>0.59872611464968151</v>
       </c>
       <c r="J7" s="47">
         <f t="shared" si="2"/>
-        <v>0.59459459459459463</v>
+        <v>0.59872611464968151</v>
       </c>
       <c r="K7" s="47">
         <f t="shared" si="2"/>
-        <v>0.59459459459459463</v>
-      </c>
-      <c r="L7" s="47">
-        <f t="shared" si="2"/>
-        <v>0.59459459459459463</v>
-      </c>
-      <c r="M7" s="47">
-        <f t="shared" si="2"/>
-        <v>0.59459459459459463</v>
-      </c>
-      <c r="N7" s="47">
-        <f t="shared" si="2"/>
-        <v>0.59459459459459463</v>
-      </c>
+        <v>0.59872611464968151</v>
+      </c>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -11422,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="47">
-        <f t="shared" ref="F8:N9" si="3">E8</f>
+        <f t="shared" ref="F8:K9" si="3">E8</f>
         <v>0</v>
       </c>
       <c r="G8" s="47">
@@ -11445,18 +11349,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
@@ -11476,44 +11371,35 @@
       </c>
       <c r="E9" s="47">
         <f>Decomposition!J20</f>
-        <v>0.40540540540540543</v>
+        <v>0.40127388535031849</v>
       </c>
       <c r="F9" s="47">
         <f t="shared" si="3"/>
-        <v>0.40540540540540543</v>
+        <v>0.40127388535031849</v>
       </c>
       <c r="G9" s="47">
         <f t="shared" si="3"/>
-        <v>0.40540540540540543</v>
+        <v>0.40127388535031849</v>
       </c>
       <c r="H9" s="47">
         <f t="shared" si="3"/>
-        <v>0.40540540540540543</v>
+        <v>0.40127388535031849</v>
       </c>
       <c r="I9" s="47">
         <f t="shared" si="3"/>
-        <v>0.40540540540540543</v>
+        <v>0.40127388535031849</v>
       </c>
       <c r="J9" s="47">
         <f t="shared" si="3"/>
-        <v>0.40540540540540543</v>
+        <v>0.40127388535031849</v>
       </c>
       <c r="K9" s="47">
         <f t="shared" si="3"/>
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="L9" s="47">
-        <f t="shared" si="3"/>
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="M9" s="47">
-        <f t="shared" si="3"/>
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="N9" s="47">
-        <f t="shared" si="3"/>
-        <v>0.40540540540540543</v>
-      </c>
+        <v>0.40127388535031849</v>
+      </c>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
@@ -11533,7 +11419,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -11564,15 +11450,6 @@
       </c>
       <c r="K11" t="s">
         <v>97</v>
-      </c>
-      <c r="L11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M11" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -11592,45 +11469,36 @@
         <v>0.77049180327868849</v>
       </c>
       <c r="E12" s="47">
-        <f>D12</f>
-        <v>0.77049180327868849</v>
+        <f>Decomposition!E39</f>
+        <v>0.78749999999999998</v>
       </c>
       <c r="F12" s="47">
-        <f t="shared" ref="F12:N12" si="4">E12</f>
-        <v>0.77049180327868849</v>
+        <f t="shared" ref="F12:K12" si="4">E12</f>
+        <v>0.78749999999999998</v>
       </c>
       <c r="G12" s="47">
-        <f t="shared" si="4"/>
-        <v>0.77049180327868849</v>
+        <f>F12</f>
+        <v>0.78749999999999998</v>
       </c>
       <c r="H12" s="47">
         <f t="shared" si="4"/>
-        <v>0.77049180327868849</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="I12" s="47">
         <f t="shared" si="4"/>
-        <v>0.77049180327868849</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="J12" s="47">
         <f t="shared" si="4"/>
-        <v>0.77049180327868849</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="K12" s="47">
         <f t="shared" si="4"/>
-        <v>0.77049180327868849</v>
-      </c>
-      <c r="L12" s="47">
-        <f t="shared" si="4"/>
-        <v>0.77049180327868849</v>
-      </c>
-      <c r="M12" s="47">
-        <f t="shared" si="4"/>
-        <v>0.77049180327868849</v>
-      </c>
-      <c r="N12" s="47">
-        <f t="shared" si="4"/>
-        <v>0.77049180327868849</v>
-      </c>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
@@ -11649,45 +11517,36 @@
         <v>0.22950819672131151</v>
       </c>
       <c r="E13" s="47">
-        <f>D13</f>
-        <v>0.22950819672131151</v>
+        <f t="shared" ref="E13" si="6">1-E12</f>
+        <v>0.21250000000000002</v>
       </c>
       <c r="F13" s="47">
-        <f t="shared" ref="F13:N13" si="6">E13</f>
-        <v>0.22950819672131151</v>
+        <f t="shared" ref="F13:K13" si="7">E13</f>
+        <v>0.21250000000000002</v>
       </c>
       <c r="G13" s="47">
-        <f t="shared" si="6"/>
-        <v>0.22950819672131151</v>
+        <f t="shared" si="7"/>
+        <v>0.21250000000000002</v>
       </c>
       <c r="H13" s="47">
-        <f t="shared" si="6"/>
-        <v>0.22950819672131151</v>
+        <f t="shared" si="7"/>
+        <v>0.21250000000000002</v>
       </c>
       <c r="I13" s="47">
-        <f t="shared" si="6"/>
-        <v>0.22950819672131151</v>
+        <f t="shared" si="7"/>
+        <v>0.21250000000000002</v>
       </c>
       <c r="J13" s="47">
-        <f t="shared" si="6"/>
-        <v>0.22950819672131151</v>
+        <f t="shared" si="7"/>
+        <v>0.21250000000000002</v>
       </c>
       <c r="K13" s="47">
-        <f t="shared" si="6"/>
-        <v>0.22950819672131151</v>
-      </c>
-      <c r="L13" s="47">
-        <f t="shared" si="6"/>
-        <v>0.22950819672131151</v>
-      </c>
-      <c r="M13" s="47">
-        <f t="shared" si="6"/>
-        <v>0.22950819672131151</v>
-      </c>
-      <c r="N13" s="47">
-        <f t="shared" si="6"/>
-        <v>0.22950819672131151</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>0.21250000000000002</v>
+      </c>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
@@ -11736,15 +11595,6 @@
       <c r="K15" t="s">
         <v>97</v>
       </c>
-      <c r="L15" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -11760,7 +11610,7 @@
       </c>
       <c r="E16" s="24">
         <f>AVERAGE(K35:N35)</f>
-        <v>3.9888333333333321</v>
+        <v>3.8513333333333324</v>
       </c>
       <c r="F16" s="24">
         <f>AVERAGE(O35:R35)</f>
@@ -11786,18 +11636,9 @@
         <f>AVERAGE(AI35:AL35)</f>
         <v>2.7000000000000006</v>
       </c>
-      <c r="L16" s="24" t="e">
-        <f>AVERAGE(AM35:AP35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="24" t="e">
-        <f>L16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="24" t="e">
-        <f t="shared" ref="N16" si="7">M16</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:82" x14ac:dyDescent="0.25">
@@ -11814,7 +11655,7 @@
       </c>
       <c r="E17" s="24">
         <f>AVERAGE(K33:N33)</f>
-        <v>3.4315795833333325</v>
+        <v>3.3541665833333325</v>
       </c>
       <c r="F17" s="24">
         <f>AVERAGE(O33:R33)</f>
@@ -11840,18 +11681,9 @@
         <f>AVERAGE(AI33:AL33)</f>
         <v>3.75</v>
       </c>
-      <c r="L17" s="24" t="e">
-        <f>AVERAGE(AM33:AP33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="24" t="e">
-        <f t="shared" ref="M17:N18" si="8">L17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="24" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="24"/>
     </row>
     <row r="18" spans="1:82" x14ac:dyDescent="0.25">
@@ -11868,7 +11700,7 @@
       </c>
       <c r="E18" s="24">
         <f>AVERAGE(K34:N34)</f>
-        <v>3.3659097499999997</v>
+        <v>3.2991667499999999</v>
       </c>
       <c r="F18" s="24">
         <f>AVERAGE(O34:R34)</f>
@@ -11894,18 +11726,9 @@
         <f>AVERAGE(AI34:AL34)</f>
         <v>3.5</v>
       </c>
-      <c r="L18" s="24" t="e">
-        <f>AVERAGE(AM34:AP34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="24" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="24" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
       <c r="O18" s="24"/>
     </row>
     <row r="19" spans="1:82" x14ac:dyDescent="0.25">
@@ -11926,164 +11749,137 @@
     </row>
     <row r="20" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C20" s="24">
         <f>AVERAGE(C36:F36)</f>
         <v>3.1771666666666629</v>
       </c>
       <c r="D20" s="24">
-        <f t="shared" ref="D20:D22" si="9">AVERAGE(G36:J36)</f>
+        <f t="shared" ref="D20:D22" si="8">AVERAGE(G36:J36)</f>
         <v>4.0518333333333301</v>
       </c>
       <c r="E20" s="24">
-        <f t="shared" ref="E20:E22" si="10">AVERAGE(K36:N36)</f>
-        <v>3.558909754166665</v>
+        <f t="shared" ref="E20:E22" si="9">AVERAGE(K36:N36)</f>
+        <v>3.4651750541666648</v>
       </c>
       <c r="F20" s="24">
-        <f t="shared" ref="F20:F22" si="11">AVERAGE(O36:R36)</f>
+        <f t="shared" ref="F20:F22" si="10">AVERAGE(O36:R36)</f>
         <v>2.82</v>
       </c>
       <c r="G20" s="24">
-        <f t="shared" ref="G20:G22" si="12">AVERAGE(S36:V36)</f>
+        <f t="shared" ref="G20:G22" si="11">AVERAGE(S36:V36)</f>
         <v>2.82</v>
       </c>
       <c r="H20" s="24">
-        <f t="shared" ref="H20:H22" si="13">AVERAGE(W36:Z36)</f>
+        <f t="shared" ref="H20:H22" si="12">AVERAGE(W36:Z36)</f>
         <v>2.82</v>
       </c>
       <c r="I20" s="24">
-        <f t="shared" ref="I20:I22" si="14">AVERAGE(AA36:AD36)</f>
+        <f t="shared" ref="I20:I22" si="13">AVERAGE(AA36:AD36)</f>
         <v>2.82</v>
       </c>
       <c r="J20" s="24">
-        <f t="shared" ref="J20:J22" si="15">AVERAGE(AE36:AH36)</f>
+        <f t="shared" ref="J20:J22" si="14">AVERAGE(AE36:AH36)</f>
         <v>2.82</v>
       </c>
       <c r="K20" s="24">
-        <f t="shared" ref="K20:K22" si="16">AVERAGE(AI36:AL36)</f>
+        <f t="shared" ref="K20:K22" si="15">AVERAGE(AI36:AL36)</f>
         <v>2.82</v>
       </c>
-      <c r="L20" s="24" t="e">
-        <f t="shared" ref="L20:L22" si="17">AVERAGE(AM36:AP36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="24" t="e">
-        <f t="shared" ref="M20:M22" si="18">L20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="24" t="e">
-        <f t="shared" ref="N20:N22" si="19">M20</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="24"/>
     </row>
     <row r="21" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C21" s="24">
-        <f t="shared" ref="C21:C22" si="20">AVERAGE(C37:F37)</f>
+        <f t="shared" ref="C21:C22" si="16">AVERAGE(C37:F37)</f>
         <v>3.1771666666666629</v>
       </c>
       <c r="D21" s="24">
+        <f t="shared" si="8"/>
+        <v>4.0518333333333301</v>
+      </c>
+      <c r="E21" s="24">
         <f t="shared" si="9"/>
-        <v>4.0518333333333301</v>
-      </c>
-      <c r="E21" s="24">
+        <v>3.4320450591666654</v>
+      </c>
+      <c r="F21" s="24">
         <f t="shared" si="10"/>
-        <v>3.5215343391666649</v>
-      </c>
-      <c r="F21" s="24">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="G21" s="24">
         <f t="shared" si="11"/>
         <v>2.8679999999999999</v>
       </c>
-      <c r="G21" s="24">
+      <c r="H21" s="24">
         <f t="shared" si="12"/>
         <v>2.8679999999999999</v>
       </c>
-      <c r="H21" s="24">
+      <c r="I21" s="24">
         <f t="shared" si="13"/>
         <v>2.8679999999999999</v>
       </c>
-      <c r="I21" s="24">
+      <c r="J21" s="24">
         <f t="shared" si="14"/>
         <v>2.8679999999999999</v>
       </c>
-      <c r="J21" s="24">
+      <c r="K21" s="24">
         <f t="shared" si="15"/>
         <v>2.8679999999999999</v>
       </c>
-      <c r="K21" s="24">
-        <f t="shared" si="16"/>
-        <v>2.8679999999999999</v>
-      </c>
-      <c r="L21" s="24" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="24" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="24" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="24"/>
     </row>
     <row r="22" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C22" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>3.1771666666666629</v>
       </c>
       <c r="D22" s="24">
+        <f t="shared" si="8"/>
+        <v>4.0518333333333301</v>
+      </c>
+      <c r="E22" s="24">
         <f t="shared" si="9"/>
-        <v>4.0518333333333301</v>
-      </c>
-      <c r="E22" s="24">
+        <v>3.3436984058333326</v>
+      </c>
+      <c r="F22" s="24">
         <f t="shared" si="10"/>
-        <v>3.4218665658333327</v>
-      </c>
-      <c r="F22" s="24">
+        <v>2.996</v>
+      </c>
+      <c r="G22" s="24">
         <f t="shared" si="11"/>
         <v>2.996</v>
       </c>
-      <c r="G22" s="24">
+      <c r="H22" s="24">
         <f t="shared" si="12"/>
         <v>2.996</v>
       </c>
-      <c r="H22" s="24">
+      <c r="I22" s="24">
         <f t="shared" si="13"/>
         <v>2.996</v>
       </c>
-      <c r="I22" s="24">
+      <c r="J22" s="24">
         <f t="shared" si="14"/>
         <v>2.996</v>
       </c>
-      <c r="J22" s="24">
+      <c r="K22" s="24">
         <f t="shared" si="15"/>
         <v>2.996</v>
       </c>
-      <c r="K22" s="24">
-        <f t="shared" si="16"/>
-        <v>2.996</v>
-      </c>
-      <c r="L22" s="24" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="24" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="24" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
       <c r="O22" s="24"/>
     </row>
     <row r="23" spans="1:82" x14ac:dyDescent="0.25">
@@ -12103,97 +11899,76 @@
       </c>
       <c r="E24" s="49">
         <f>0.6*E18+0.4*E16</f>
-        <v>3.6150791833333327</v>
+        <v>3.5200333833333328</v>
       </c>
       <c r="F24" s="49">
         <f>0.6*F18+0.4*F16</f>
         <v>3.18</v>
       </c>
       <c r="G24" s="49">
-        <f t="shared" ref="G24:N24" si="21">0.6*G18+0.4*G16</f>
+        <f t="shared" ref="G24:K24" si="17">0.6*G18+0.4*G16</f>
         <v>3.18</v>
       </c>
       <c r="H24" s="49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3.18</v>
       </c>
       <c r="I24" s="49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3.18</v>
       </c>
       <c r="J24" s="49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3.18</v>
       </c>
       <c r="K24" s="49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3.1800000000000006</v>
-      </c>
-      <c r="L24" s="49" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="49" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="49" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:82" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C25" s="49">
         <f>C$2*C16+C$3*C17+C$4*C$7*C$20+C$4*C$8*C$21+C$4*C$9*C$22</f>
         <v>3.2570732127476276</v>
       </c>
       <c r="D25" s="49">
-        <f t="shared" ref="D25:N25" si="22">D$2*D16+D$3*D17+D$4*D$7*D$20+D$4*D$8*D$21+D$4*D$9*D$22</f>
+        <f t="shared" ref="D25:K25" si="18">D$2*D16+D$3*D17+D$4*D$7*D$20+D$4*D$8*D$21+D$4*D$9*D$22</f>
         <v>4.4820855670103068</v>
       </c>
       <c r="E25" s="49">
-        <f t="shared" si="22"/>
-        <v>3.7591001047280863</v>
+        <f t="shared" si="18"/>
+        <v>3.6482257794345228</v>
       </c>
       <c r="F25" s="49">
         <f>F$2*F16+F$3*F17+F$4*F$7*F$20+F$4*F$8*F$21+F$4*F$9*F$22</f>
-        <v>2.9216205947873157</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="G25" s="49">
-        <f t="shared" si="22"/>
-        <v>2.9216205947873157</v>
+        <f t="shared" si="18"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="H25" s="49">
-        <f t="shared" si="22"/>
-        <v>2.9216205947873157</v>
+        <f t="shared" si="18"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="I25" s="49">
-        <f t="shared" si="22"/>
-        <v>2.9216205947873157</v>
+        <f t="shared" si="18"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="J25" s="49">
-        <f t="shared" si="22"/>
-        <v>2.9216205947873157</v>
+        <f t="shared" si="18"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="K25" s="49">
-        <f t="shared" si="22"/>
-        <v>2.9216205947873162</v>
-      </c>
-      <c r="L25" s="49" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="49" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="49" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="18"/>
+        <v>2.9141503759398493</v>
+      </c>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
       <c r="O25" s="49"/>
     </row>
     <row r="26" spans="1:82" x14ac:dyDescent="0.25">
@@ -12516,13 +12291,13 @@
         <v>3.5533333333333301</v>
       </c>
       <c r="L33">
-        <v>3.1831</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
-        <v>3.4113020000000001</v>
+        <v>3.3233329999999999</v>
       </c>
       <c r="N33">
-        <v>3.5785830000000001</v>
+        <v>3.34</v>
       </c>
       <c r="O33">
         <v>3.75</v>
@@ -12637,13 +12412,13 @@
         <v>3.67</v>
       </c>
       <c r="L34">
-        <v>3.080667</v>
+        <v>3.09</v>
       </c>
       <c r="M34">
-        <v>3.312786</v>
+        <v>3.2566670000000002</v>
       </c>
       <c r="N34">
-        <v>3.4001860000000002</v>
+        <v>3.18</v>
       </c>
       <c r="O34">
         <v>3.5</v>
@@ -12758,13 +12533,13 @@
         <v>4.8233333333333297</v>
       </c>
       <c r="L35">
-        <v>4.2320000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="M35">
-        <v>3.7</v>
+        <v>3.42</v>
       </c>
       <c r="N35">
-        <v>3.2</v>
+        <v>2.9620000000000002</v>
       </c>
       <c r="O35">
         <v>2.7</v>
@@ -12846,10 +12621,10 @@
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C36">
         <v>2.4326666666666599</v>
@@ -12879,13 +12654,13 @@
         <v>4.0736666666666599</v>
       </c>
       <c r="L36">
-        <v>3.48363355</v>
+        <v>3.4784999999999999</v>
       </c>
       <c r="M36">
-        <v>3.4483109000000001</v>
+        <v>3.31383355</v>
       </c>
       <c r="N36">
-        <v>3.2300279000000001</v>
+        <v>2.9946999999999999</v>
       </c>
       <c r="O36">
         <v>2.82</v>
@@ -12959,10 +12734,10 @@
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C37">
         <v>2.4326666666666599</v>
@@ -12992,13 +12767,13 @@
         <v>4.0044666666666604</v>
       </c>
       <c r="L37">
-        <v>3.4145535699999998</v>
+        <v>3.4119000000000002</v>
       </c>
       <c r="M37">
-        <v>3.4250780600000001</v>
+        <v>3.3040335700000001</v>
       </c>
       <c r="N37">
-        <v>3.2420390600000002</v>
+        <v>3.0077799999999999</v>
       </c>
       <c r="O37">
         <v>2.8679999999999999</v>
@@ -13072,10 +12847,10 @@
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C38">
         <v>2.4326666666666599</v>
@@ -13105,13 +12880,13 @@
         <v>3.8199333333333301</v>
       </c>
       <c r="L38">
-        <v>3.23034029</v>
+        <v>3.2343000000000002</v>
       </c>
       <c r="M38">
-        <v>3.3631238200000002</v>
+        <v>3.2779002899999998</v>
       </c>
       <c r="N38">
-        <v>3.2740688200000001</v>
+        <v>3.0426600000000001</v>
       </c>
       <c r="O38">
         <v>2.996</v>
@@ -13185,99 +12960,99 @@
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O40" s="20">
         <f>F3</f>
-        <v>0.15784942648669203</v>
+        <v>0.15037593984962405</v>
       </c>
       <c r="P40" s="20">
         <f>O40</f>
-        <v>0.15784942648669203</v>
+        <v>0.15037593984962405</v>
       </c>
       <c r="Q40" s="20">
-        <f t="shared" ref="Q40:AK44" si="23">P40</f>
-        <v>0.15784942648669203</v>
+        <f t="shared" ref="Q40:AK44" si="19">P40</f>
+        <v>0.15037593984962405</v>
       </c>
       <c r="R40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="S40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="T40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="U40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="V40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="W40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="X40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="Y40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="Z40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="AA40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="AB40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="AC40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="AD40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="AE40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="AF40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="AG40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="AH40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="AI40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="AJ40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="AK40" s="20">
-        <f t="shared" si="23"/>
-        <v>0.15784942648669203</v>
+        <f t="shared" si="19"/>
+        <v>0.15037593984962405</v>
       </c>
       <c r="AL40" s="20"/>
       <c r="AM40" s="20"/>
@@ -13290,99 +13065,99 @@
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O41" s="20">
         <f>F2</f>
-        <v>0.55012913451292766</v>
+        <v>0.55451127819548873</v>
       </c>
       <c r="P41" s="20">
-        <f t="shared" ref="P41:AE44" si="24">O41</f>
-        <v>0.55012913451292766</v>
+        <f t="shared" ref="P41:AE44" si="20">O41</f>
+        <v>0.55451127819548873</v>
       </c>
       <c r="Q41" s="20">
-        <f t="shared" si="24"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="20"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="R41" s="20">
-        <f t="shared" si="24"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="20"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="S41" s="20">
-        <f t="shared" si="24"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="20"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="T41" s="20">
-        <f t="shared" si="24"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="20"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="U41" s="20">
-        <f t="shared" si="24"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="20"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="V41" s="20">
-        <f t="shared" si="24"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="20"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="W41" s="20">
-        <f t="shared" si="24"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="20"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="X41" s="20">
-        <f t="shared" si="24"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="20"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="Y41" s="20">
-        <f t="shared" si="24"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="20"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="Z41" s="20">
-        <f t="shared" si="24"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="20"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="AA41" s="20">
-        <f t="shared" si="24"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="20"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="AB41" s="20">
-        <f t="shared" si="24"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="20"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="AC41" s="20">
-        <f t="shared" si="24"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="20"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="AD41" s="20">
-        <f t="shared" si="24"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="20"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="AE41" s="20">
-        <f t="shared" si="24"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="20"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="AF41" s="20">
-        <f t="shared" si="23"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="19"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="AG41" s="20">
-        <f t="shared" si="23"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="19"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="AH41" s="20">
-        <f t="shared" si="23"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="19"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="AI41" s="20">
-        <f t="shared" si="23"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="19"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="AJ41" s="20">
-        <f t="shared" si="23"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="19"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="AK41" s="20">
-        <f t="shared" si="23"/>
-        <v>0.55012913451292766</v>
+        <f t="shared" si="19"/>
+        <v>0.55451127819548873</v>
       </c>
       <c r="AL41" s="20"/>
       <c r="AM41" s="20"/>
@@ -13395,99 +13170,99 @@
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O42" s="20">
         <f>F4*F7</f>
-        <v>0.17363436913536126</v>
+        <v>0.17669172932330823</v>
       </c>
       <c r="P42" s="20">
-        <f t="shared" si="24"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="20"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="Q42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="R42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="S42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="T42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="U42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="V42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="W42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="X42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="Y42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="Z42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="AA42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="AB42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="AC42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="AD42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="AE42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="AF42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="AG42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="AH42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="AI42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="AJ42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="AK42" s="20">
-        <f t="shared" si="23"/>
-        <v>0.17363436913536126</v>
+        <f t="shared" si="19"/>
+        <v>0.17669172932330823</v>
       </c>
       <c r="AL42" s="20"/>
       <c r="AM42" s="20"/>
@@ -13500,98 +13275,98 @@
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O43" s="20">
         <f>F4*F8</f>
         <v>0</v>
       </c>
       <c r="P43" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AC43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AE43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AG43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AH43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AJ43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK43" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL43" s="20"/>
@@ -13605,99 +13380,99 @@
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O44" s="20">
         <f>F4*F9</f>
-        <v>0.11838706986501905</v>
+        <v>0.11842105263157893</v>
       </c>
       <c r="P44" s="20">
-        <f t="shared" si="24"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="20"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="Q44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="R44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="S44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="T44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="U44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="V44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="W44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="X44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="Y44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="Z44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="AA44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="AB44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="AC44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="AD44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="AE44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="AF44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="AG44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="AH44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="AI44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="AJ44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="AK44" s="20">
-        <f t="shared" si="23"/>
-        <v>0.11838706986501905</v>
+        <f t="shared" si="19"/>
+        <v>0.11842105263157893</v>
       </c>
       <c r="AL44" s="20"/>
       <c r="AM44" s="20"/>
@@ -13713,99 +13488,99 @@
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O46" s="24">
         <f>O33*O40+SUMPRODUCT(O35:O38,O41:O44)</f>
-        <v>2.9216205947873162</v>
+        <v>2.9141503759398493</v>
       </c>
       <c r="P46" s="24">
-        <f t="shared" ref="P46:AK46" si="25">P33*P40+SUMPRODUCT(P35:P38,P41:P44)</f>
-        <v>2.9216205947873162</v>
+        <f t="shared" ref="P46:AK46" si="21">P33*P40+SUMPRODUCT(P35:P38,P41:P44)</f>
+        <v>2.9141503759398493</v>
       </c>
       <c r="Q46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="R46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="S46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="T46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="U46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="V46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="W46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="X46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="Y46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="Z46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="AA46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="AB46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="AC46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="AD46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="AE46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="AF46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="AG46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="AH46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="AI46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="AJ46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="AK46" s="24">
-        <f t="shared" si="25"/>
-        <v>2.9216205947873162</v>
+        <f t="shared" si="21"/>
+        <v>2.9141503759398493</v>
       </c>
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
@@ -13852,99 +13627,99 @@
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O48" s="71">
         <f>O41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="P48" s="71">
         <f>P41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="Q48" s="71">
         <f>Q41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="R48" s="71">
         <f>R41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="S48" s="71">
         <f>S41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="T48" s="71">
         <f>T41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="U48" s="71">
         <f>U41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="V48" s="71">
         <f>V41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="W48" s="71">
         <f>W41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="X48" s="71">
         <f>X41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="Y48" s="71">
         <f>Y41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="Z48" s="71">
         <f>Z41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="AA48" s="71">
         <f>AA41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="AB48" s="71">
         <f>AB41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="AC48" s="71">
         <f>AC41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="AD48" s="71">
         <f>AD41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="AE48" s="71">
         <f>AE41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="AF48" s="71">
         <f>AF41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="AG48" s="71">
         <f>AG41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="AH48" s="71">
         <f>AH41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="AI48" s="71">
         <f>AI41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="AJ48" s="71">
         <f>AJ41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="AK48" s="71">
         <f>AK41*SUM(Decomposition!$B$8:$B$9)</f>
-        <v>0.35428316262632542</v>
+        <v>0.35710526315789476</v>
       </c>
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
@@ -13957,99 +13732,99 @@
     </row>
     <row r="49" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O49" s="71">
         <f>O41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="P49" s="71">
         <f>P41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="Q49" s="71">
         <f>Q41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="R49" s="71">
         <f>R41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="S49" s="71">
         <f>S41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="T49" s="71">
         <f>T41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="U49" s="71">
         <f>U41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="V49" s="71">
         <f>V41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="W49" s="71">
         <f>W41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="X49" s="71">
         <f>X41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="Y49" s="71">
         <f>Y41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="Z49" s="71">
         <f>Z41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AA49" s="71">
         <f>AA41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AB49" s="71">
         <f>AB41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AC49" s="71">
         <f>AC41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AD49" s="71">
         <f>AD41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AE49" s="71">
         <f>AE41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AF49" s="71">
         <f>AF41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AG49" s="71">
         <f>AG41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AH49" s="71">
         <f>AH41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AI49" s="71">
         <f>AI41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AJ49" s="71">
         <f>AJ41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AK49" s="71">
         <f>AK41*Decomposition!$B$10</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
@@ -14062,99 +13837,99 @@
     </row>
     <row r="50" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O50" s="71">
         <f>O41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="P50" s="71">
         <f>P41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="Q50" s="71">
         <f>Q41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="R50" s="71">
         <f>R41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="S50" s="71">
         <f>S41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="T50" s="71">
         <f>T41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="U50" s="71">
         <f>U41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="V50" s="71">
         <f>V41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="W50" s="71">
         <f>W41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="X50" s="71">
         <f>X41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="Y50" s="71">
         <f>Y41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="Z50" s="71">
         <f>Z41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AA50" s="71">
         <f>AA41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AB50" s="71">
         <f>AB41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AC50" s="71">
         <f>AC41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AD50" s="71">
         <f>AD41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AE50" s="71">
         <f>AE41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AF50" s="71">
         <f>AF41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AG50" s="71">
         <f>AG41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AH50" s="71">
         <f>AH41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AI50" s="71">
         <f>AI41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AJ50" s="71">
         <f>AJ41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AK50" s="71">
         <f>AK41*Decomposition!$B$11</f>
-        <v>9.7922985943301122E-2</v>
+        <v>9.8703007518796987E-2</v>
       </c>
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
@@ -14342,23 +14117,23 @@
         <v>1.6215554999999999</v>
       </c>
       <c r="G60" s="24">
-        <f t="shared" ref="G60:K60" si="26">0.6*G58+0.4*G56</f>
+        <f t="shared" ref="G60:K60" si="22">0.6*G58+0.4*G56</f>
         <v>2.3177778500000001</v>
       </c>
       <c r="H60" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>2.6799999999999997</v>
       </c>
       <c r="I60" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>2.6799999999999997</v>
       </c>
       <c r="J60" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>2.6799999999999997</v>
       </c>
       <c r="K60" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>2.6799999999999997</v>
       </c>
       <c r="L60" s="20"/>
@@ -14439,27 +14214,27 @@
         <v>49</v>
       </c>
       <c r="F61" s="24">
-        <f t="shared" ref="F61:K61" si="27">$B$2*F56+$B$3*F57+$B$4*F60</f>
+        <f t="shared" ref="F61:K61" si="23">$B$2*F56+$B$3*F57+$B$4*F60</f>
         <v>1.4735893902027026</v>
       </c>
       <c r="G61" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>2.2454164121621618</v>
       </c>
       <c r="H61" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>2.6280405405405403</v>
       </c>
       <c r="I61" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>2.6280405405405403</v>
       </c>
       <c r="J61" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>2.6280405405405403</v>
       </c>
       <c r="K61" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>2.6280405405405403</v>
       </c>
     </row>
@@ -14580,13 +14355,13 @@
         <v>17</v>
       </c>
       <c r="N78" t="s">
+        <v>258</v>
+      </c>
+      <c r="O78" t="s">
+        <v>259</v>
+      </c>
+      <c r="P78" t="s">
         <v>260</v>
-      </c>
-      <c r="O78" t="s">
-        <v>261</v>
-      </c>
-      <c r="P78" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -14891,22 +14666,22 @@
         <v>73</v>
       </c>
       <c r="K88">
-        <v>3.1831</v>
+        <v>3.2</v>
       </c>
       <c r="L88">
-        <v>3.080667</v>
+        <v>3.09</v>
       </c>
       <c r="M88">
-        <v>4.2320000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="N88">
-        <v>3.48363355</v>
+        <v>3.4784999999999999</v>
       </c>
       <c r="O88">
-        <v>3.4145535699999998</v>
+        <v>3.4119000000000002</v>
       </c>
       <c r="P88">
-        <v>3.23034029</v>
+        <v>3.2343000000000002</v>
       </c>
     </row>
     <row r="89" spans="3:16" x14ac:dyDescent="0.25">
@@ -14923,22 +14698,22 @@
         <v>74</v>
       </c>
       <c r="K89">
-        <v>3.4113020000000001</v>
+        <v>3.3233329999999999</v>
       </c>
       <c r="L89">
-        <v>3.312786</v>
+        <v>3.2566670000000002</v>
       </c>
       <c r="M89">
-        <v>3.7</v>
+        <v>3.42</v>
       </c>
       <c r="N89">
-        <v>3.4483109000000001</v>
+        <v>3.31383355</v>
       </c>
       <c r="O89">
-        <v>3.4250780600000001</v>
+        <v>3.3040335700000001</v>
       </c>
       <c r="P89">
-        <v>3.3631238200000002</v>
+        <v>3.2779002899999998</v>
       </c>
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.25">
@@ -14955,22 +14730,22 @@
         <v>75</v>
       </c>
       <c r="K90">
-        <v>3.5785830000000001</v>
+        <v>3.34</v>
       </c>
       <c r="L90">
-        <v>3.4001860000000002</v>
+        <v>3.18</v>
       </c>
       <c r="M90">
-        <v>3.2</v>
+        <v>2.9620000000000002</v>
       </c>
       <c r="N90">
-        <v>3.2300279000000001</v>
+        <v>2.9946999999999999</v>
       </c>
       <c r="O90">
-        <v>3.2420390600000002</v>
+        <v>3.0077799999999999</v>
       </c>
       <c r="P90">
-        <v>3.2740688200000001</v>
+        <v>3.0426600000000001</v>
       </c>
     </row>
     <row r="91" spans="3:16" x14ac:dyDescent="0.25">

--- a/src/assets/payload.xlsx
+++ b/src/assets/payload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoccdc-my.sharepoint.com/personal/remy_vanherweghem_parl_gc_ca/Documents/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{1586D9BE-0BEE-4142-9B86-AB9744788D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6147CED-5E31-4E82-9EB1-6A03901902FF}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{1586D9BE-0BEE-4142-9B86-AB9744788D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AA5A593-5E4A-4199-8B3A-5991456BB8FC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{983CEFC8-2B83-4647-BCB1-636BCC2A5490}"/>
   </bookViews>
@@ -540,9 +540,6 @@
     <t>warning_fr</t>
   </si>
   <si>
-    <t>2024-2025</t>
-  </si>
-  <si>
     <t>2025-2026</t>
   </si>
   <si>
@@ -1045,6 +1042,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2029-2030</t>
   </si>
 </sst>
 </file>
@@ -1467,6 +1467,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{18D3F2AD-386C-47D7-A08A-D0F9FA78FC08}" name="Table12" displayName="Table12" ref="A1:C14" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:C14" xr:uid="{18D3F2AD-386C-47D7-A08A-D0F9FA78FC08}">
@@ -1808,24 +1812,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="74" t="s">
         <v>202</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="76" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1836,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1847,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1858,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1866,10 +1870,10 @@
         <v>158</v>
       </c>
       <c r="B6" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,7 +1882,7 @@
       </c>
       <c r="B7" s="76"/>
       <c r="C7" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,7 +1891,7 @@
       </c>
       <c r="B8" s="76"/>
       <c r="C8" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1896,7 +1900,7 @@
       </c>
       <c r="B9" s="76"/>
       <c r="C9" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1905,7 +1909,7 @@
       </c>
       <c r="B10" s="76"/>
       <c r="C10" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1914,59 +1918,59 @@
       </c>
       <c r="B11" s="76"/>
       <c r="C11" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B12" s="76"/>
       <c r="C12" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="76"/>
       <c r="C13" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B14" s="76"/>
       <c r="C14" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +1987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DA5658-E2EA-4E0B-B547-2D4F388F10E4}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2002,7 +2008,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
         <v>157</v>
@@ -2032,10 +2038,10 @@
         <v>165</v>
       </c>
       <c r="K1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M1" s="75" t="s">
         <v>166</v>
@@ -2044,27 +2050,27 @@
         <v>167</v>
       </c>
       <c r="O1" s="75" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="P1" s="75" t="s">
         <v>177</v>
       </c>
       <c r="Q1" s="75" t="s">
-        <v>178</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="73" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -2074,7 +2080,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M2" s="75">
         <v>0</v>
@@ -2094,16 +2100,16 @@
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="73" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -2113,7 +2119,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M3" s="75">
         <v>0</v>
@@ -2136,13 +2142,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -2152,7 +2158,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M4" s="75">
         <f>'For user (EN)'!C6</f>
@@ -2180,13 +2186,13 @@
         <v>59</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="73" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -2196,7 +2202,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M5" s="75">
         <f>'For user (EN)'!C10</f>
@@ -2221,30 +2227,30 @@
     </row>
     <row r="6" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M6" s="75">
         <f>'For user (EN)'!C12</f>
@@ -2272,13 +2278,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="73" t="s">
         <v>181</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>182</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -2288,7 +2294,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M7" s="75">
         <f>'For user (EN)'!C11</f>
@@ -2316,13 +2322,13 @@
         <v>58</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="73" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -2332,7 +2338,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M8" s="75">
         <f>'For user (EN)'!C13</f>
@@ -2360,19 +2366,19 @@
         <v>51</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="73" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -2405,22 +2411,22 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>222</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -2456,19 +2462,19 @@
         <v>52</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -2504,19 +2510,19 @@
         <v>57</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="73" t="s">
-        <v>196</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -2549,22 +2555,22 @@
     </row>
     <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D13" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -2595,22 +2601,22 @@
     </row>
     <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D14" s="79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -2641,22 +2647,22 @@
     </row>
     <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -2687,22 +2693,22 @@
     </row>
     <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D16" s="73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -2733,22 +2739,22 @@
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D17" s="73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>223</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>224</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -2779,22 +2785,22 @@
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D18" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E18" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>223</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>224</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -2825,22 +2831,22 @@
     </row>
     <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D19" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E19" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>223</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>224</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -2871,7 +2877,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q26" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2998,23 +3004,23 @@
       </c>
       <c r="D5" s="68">
         <f>'For user (EN)'!C5</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E5" s="68">
         <f>'For user (EN)'!D5</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="68">
         <f>'For user (EN)'!E5</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="68">
         <f>'For user (EN)'!F5</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="68">
         <f>'For user (EN)'!G5</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -3130,7 +3136,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>31</v>
@@ -3159,7 +3165,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>31</v>
@@ -3188,7 +3194,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>31</v>
@@ -3293,7 +3299,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>28</v>
@@ -3323,7 +3329,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>29</v>
@@ -3352,7 +3358,7 @@
     </row>
     <row r="20" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>30</v>
@@ -3381,10 +3387,10 @@
     </row>
     <row r="21" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="9">
@@ -3432,7 +3438,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>132</v>
@@ -3461,7 +3467,7 @@
     </row>
     <row r="25" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>133</v>
@@ -3490,7 +3496,7 @@
     </row>
     <row r="26" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>133</v>
@@ -3519,7 +3525,7 @@
     </row>
     <row r="27" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>133</v>
@@ -3548,10 +3554,10 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="9">
@@ -3641,10 +3647,10 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="67">
@@ -3670,10 +3676,10 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="67">
@@ -3699,10 +3705,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" s="36" t="s">
         <v>241</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>242</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="67">
@@ -4031,7 +4037,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -4091,7 +4097,7 @@
         <v>94</v>
       </c>
       <c r="W3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -4222,83 +4228,83 @@
       </c>
       <c r="D6" s="68">
         <f>'For user (EN)'!C5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E6" s="68">
         <f>'For user (EN)'!C5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F6" s="68">
         <f>'For user (EN)'!C5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G6" s="68">
         <f>'For user (EN)'!C5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H6" s="68">
         <f>'For user (EN)'!D5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="I6" s="68">
         <f>'For user (EN)'!$D5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="J6" s="68">
         <f>'For user (EN)'!$D5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K6" s="68">
         <f>'For user (EN)'!$D5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
         <f>'For user (EN)'!$E5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4">
         <f>'For user (EN)'!$E5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4">
         <f>'For user (EN)'!$E5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="O6" s="4">
         <f>'For user (EN)'!$E5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="P6" s="4">
         <f>'For user (EN)'!$F5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="4">
         <f>'For user (EN)'!$F5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="R6" s="4">
         <f>'For user (EN)'!$F5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="S6" s="4">
         <f>'For user (EN)'!$F5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="T6" s="4">
         <f>'For user (EN)'!$G5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="U6" s="4">
         <f>'For user (EN)'!$G5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="V6" s="4">
         <f>'For user (EN)'!$G5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="W6" s="4">
         <f>'For user (EN)'!$G5/4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -4624,7 +4630,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>31</v>
@@ -4713,7 +4719,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>31</v>
@@ -4802,7 +4808,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>31</v>
@@ -5032,7 +5038,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>28</v>
@@ -5121,7 +5127,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>29</v>
@@ -5210,7 +5216,7 @@
     </row>
     <row r="21" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>30</v>
@@ -5299,10 +5305,10 @@
     </row>
     <row r="22" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="9">
@@ -5440,7 +5446,7 @@
     </row>
     <row r="25" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>130</v>
@@ -5529,7 +5535,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="30"/>
@@ -5616,7 +5622,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="30"/>
@@ -5703,10 +5709,10 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>300</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>301</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="9">
@@ -5792,10 +5798,10 @@
     </row>
     <row r="29" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="69">
@@ -5881,10 +5887,10 @@
     </row>
     <row r="30" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="69">
@@ -5970,10 +5976,10 @@
     </row>
     <row r="31" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="69">
@@ -6148,10 +6154,10 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="69">
@@ -6237,10 +6243,10 @@
     </row>
     <row r="34" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="69">
@@ -6326,10 +6332,10 @@
     </row>
     <row r="35" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="69">
@@ -6415,10 +6421,10 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B36" s="36" t="s">
         <v>308</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>309</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="9">
@@ -6504,10 +6510,10 @@
     </row>
     <row r="37" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="69">
@@ -6593,10 +6599,10 @@
     </row>
     <row r="38" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="69">
@@ -6682,10 +6688,10 @@
     </row>
     <row r="39" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="69">
@@ -6771,10 +6777,10 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="69">
@@ -6949,10 +6955,10 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="67">
@@ -7038,10 +7044,10 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="67">
@@ -7127,10 +7133,10 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="67">
@@ -7216,7 +7222,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B45" s="36" t="s">
         <v>140</v>
@@ -7305,10 +7311,10 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="67">
@@ -7394,10 +7400,10 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="67">
@@ -7483,10 +7489,10 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" s="36" t="s">
         <v>241</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>242</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="67">
@@ -7713,10 +7719,10 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="30"/>
@@ -7799,10 +7805,10 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
@@ -7882,10 +7888,10 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
@@ -7959,10 +7965,10 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="46"/>
@@ -8048,7 +8054,7 @@
         <v>126</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="46"/>
@@ -8113,7 +8119,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="46"/>
@@ -8166,7 +8172,7 @@
         <v>128</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="46"/>
@@ -8284,10 +8290,10 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="32">
@@ -8373,10 +8379,10 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C62" s="30"/>
       <c r="D62" s="32">
@@ -8462,10 +8468,10 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C63" s="30"/>
       <c r="D63" s="32">
@@ -8551,10 +8557,10 @@
     </row>
     <row r="64" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C64" s="30"/>
       <c r="D64" s="32">
@@ -8640,10 +8646,10 @@
     </row>
     <row r="65" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="32">
@@ -8729,7 +8735,7 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B66" s="36" t="s">
         <v>148</v>
@@ -8907,7 +8913,7 @@
     </row>
     <row r="68" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B68" s="36" t="s">
         <v>146</v>
@@ -9498,7 +9504,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D79" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
@@ -9552,9 +9558,7 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9625,11 +9629,26 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="4">
+        <f>machine_readable!M2</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f>machine_readable!N2</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>machine_readable!O2</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>machine_readable!P2</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f>machine_readable!Q2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -9639,19 +9658,24 @@
         <v>5</v>
       </c>
       <c r="C5" s="4">
-        <v>1000</v>
+        <f>machine_readable!M3</f>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>1000</v>
+        <f>machine_readable!N3</f>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>1000</v>
+        <f>machine_readable!O3</f>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>1000</v>
+        <f>machine_readable!P3</f>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>1000</v>
+        <f>machine_readable!Q3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -9992,7 +10016,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G6" s="62" t="s">
         <v>120</v>
@@ -10016,10 +10040,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" t="s">
         <v>282</v>
-      </c>
-      <c r="C7" t="s">
-        <v>283</v>
       </c>
       <c r="F7" s="62"/>
       <c r="H7" s="65"/>
@@ -10029,7 +10053,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B8" s="20">
         <v>0.14799999999999999</v>
@@ -10049,7 +10073,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B9" s="20">
         <v>0.496</v>
@@ -10069,7 +10093,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B10" s="20">
         <v>0.17799999999999999</v>
@@ -10089,7 +10113,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B11" s="20">
         <v>0.17799999999999999</v>
@@ -10108,7 +10132,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B12" s="77">
         <f>SUMPRODUCT(B8:B11,C8:C11)</f>
@@ -10732,7 +10756,7 @@
         <v>112</v>
       </c>
       <c r="G43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H43" t="s">
         <v>113</v>
@@ -11749,7 +11773,7 @@
     </row>
     <row r="20" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="24">
         <f>AVERAGE(C36:F36)</f>
@@ -11794,7 +11818,7 @@
     </row>
     <row r="21" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" s="24">
         <f t="shared" ref="C21:C22" si="16">AVERAGE(C37:F37)</f>
@@ -11839,7 +11863,7 @@
     </row>
     <row r="22" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="24">
         <f t="shared" si="16"/>
@@ -11928,7 +11952,7 @@
     </row>
     <row r="25" spans="1:82" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C25" s="49">
         <f>C$2*C16+C$3*C17+C$4*C$7*C$20+C$4*C$8*C$21+C$4*C$9*C$22</f>
@@ -12621,10 +12645,10 @@
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C36">
         <v>2.4326666666666599</v>
@@ -12734,10 +12758,10 @@
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C37">
         <v>2.4326666666666599</v>
@@ -12847,10 +12871,10 @@
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C38">
         <v>2.4326666666666599</v>
@@ -12960,7 +12984,7 @@
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O40" s="20">
         <f>F3</f>
@@ -13065,7 +13089,7 @@
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O41" s="20">
         <f>F2</f>
@@ -13170,7 +13194,7 @@
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O42" s="20">
         <f>F4*F7</f>
@@ -13275,7 +13299,7 @@
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O43" s="20">
         <f>F4*F8</f>
@@ -13380,7 +13404,7 @@
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O44" s="20">
         <f>F4*F9</f>
@@ -13488,7 +13512,7 @@
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O46" s="24">
         <f>O33*O40+SUMPRODUCT(O35:O38,O41:O44)</f>
@@ -13627,7 +13651,7 @@
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O48" s="71">
         <f>O41*SUM(Decomposition!$B$8:$B$9)</f>
@@ -13732,7 +13756,7 @@
     </row>
     <row r="49" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O49" s="71">
         <f>O41*Decomposition!$B$10</f>
@@ -13837,7 +13861,7 @@
     </row>
     <row r="50" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O50" s="71">
         <f>O41*Decomposition!$B$11</f>
@@ -14355,13 +14379,13 @@
         <v>17</v>
       </c>
       <c r="N78" t="s">
+        <v>257</v>
+      </c>
+      <c r="O78" t="s">
         <v>258</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>259</v>
-      </c>
-      <c r="P78" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">

--- a/src/assets/payload.xlsx
+++ b/src/assets/payload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoccdc-my.sharepoint.com/personal/remy_vanherweghem_parl_gc_ca/Documents/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{1586D9BE-0BEE-4142-9B86-AB9744788D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AA5A593-5E4A-4199-8B3A-5991456BB8FC}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{1586D9BE-0BEE-4142-9B86-AB9744788D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82F3DB11-B1AB-4949-9569-AEF52CB93DB1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{983CEFC8-2B83-4647-BCB1-636BCC2A5490}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{983CEFC8-2B83-4647-BCB1-636BCC2A5490}"/>
   </bookViews>
   <sheets>
     <sheet name="How to interface with Web tool" sheetId="8" r:id="rId1"/>
@@ -1988,7 +1988,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9558,7 +9558,9 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9686,18 +9688,23 @@
         <v>5</v>
       </c>
       <c r="C6" s="68">
+        <f t="shared" ref="C6:G6" si="2">C4-C5</f>
         <v>0</v>
       </c>
       <c r="D6" s="68">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="68">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="68">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="68">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/src/assets/payload.xlsx
+++ b/src/assets/payload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoccdc-my.sharepoint.com/personal/remy_vanherweghem_parl_gc_ca/Documents/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{277030AF-9D42-4CAB-874E-E19592415F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{277030AF-9D42-4CAB-874E-E19592415F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E1B38D7-C58A-4351-96F7-5FA85BC716C1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{983CEFC8-2B83-4647-BCB1-636BCC2A5490}"/>
   </bookViews>
@@ -1921,7 +1921,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,7 +1936,8 @@
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
     <col min="10" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="75"/>
+    <col min="13" max="13" width="13.7109375" style="75" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="75"/>
     <col min="16" max="16" width="14.5703125" style="75" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="75"/>
   </cols>
@@ -2020,30 +2021,7 @@
       <c r="L2" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="M2" s="75">
-        <f>'For user (EN)'!C4</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="75">
-        <f>'For user (EN)'!D4</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="75">
-        <f>'For user (EN)'!E4</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="75">
-        <f>'For user (EN)'!F4</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="75">
-        <f>'For user (EN)'!G4</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="75">
-        <f>'For user (EN)'!H4</f>
-        <v>0</v>
-      </c>
+      <c r="R2" s="75"/>
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2068,30 +2046,7 @@
       <c r="L3" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="M3" s="75">
-        <f>'For user (EN)'!C5</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="75">
-        <f>'For user (EN)'!D5</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="75">
-        <f>'For user (EN)'!E5</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="75">
-        <f>'For user (EN)'!F5</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="75">
-        <f>'For user (EN)'!G5</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="75">
-        <f>'For user (EN)'!H5</f>
-        <v>0</v>
-      </c>
+      <c r="R3" s="75"/>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -2914,7 +2869,7 @@
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10058,7 +10013,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10139,12 +10094,30 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="C4" s="4">
+        <f>machine_readable!M2</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f>machine_readable!N2</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>machine_readable!O2</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>machine_readable!P2</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f>machine_readable!Q2</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>machine_readable!R2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -10153,12 +10126,30 @@
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="C5" s="4">
+        <f>machine_readable!M3</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f>machine_readable!N3</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>machine_readable!O3</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>machine_readable!P3</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f>machine_readable!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>machine_readable!R3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
